--- a/Consumer Staples - Cosmetics/ELF.xlsx
+++ b/Consumer Staples - Cosmetics/ELF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Consumer Staples - Cosmetics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14658C1E-6DA9-4117-98C6-200F373E6B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E8CB16-591F-4B60-9D15-26D54FC4F731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -989,7 +989,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1062,6 +1062,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1089,35 +1102,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1250,6 +1235,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5211-4D5A-B1C6-389F18DB7C5A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1266,6 +1256,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5211-4D5A-B1C6-389F18DB7C5A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1881,6 +1876,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5FE1-4220-A084-93DF6CFED1DD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2502,6 +2502,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-AC54-4132-A673-166AD482DF15}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -2518,6 +2523,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-AC54-4132-A673-166AD482DF15}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -10995,8 +11005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11066,7 +11076,7 @@
         <v>77146</v>
       </c>
       <c r="J3" s="38">
-        <f>I3/($C$7*1000)</f>
+        <f t="shared" ref="J3:J11" si="0">I3/($C$7*1000)</f>
         <v>1.3898443751189716E-3</v>
       </c>
       <c r="L3" s="5" t="s">
@@ -11095,7 +11105,7 @@
         <v>84463</v>
       </c>
       <c r="J4" s="38">
-        <f>I4/($C$7*1000)</f>
+        <f t="shared" si="0"/>
         <v>1.5216657435988088E-3</v>
       </c>
       <c r="L4" s="5" t="s">
@@ -11122,7 +11132,7 @@
         <v>60257</v>
       </c>
       <c r="J5" s="38">
-        <f>I5/($C$7*1000)</f>
+        <f t="shared" si="0"/>
         <v>1.0855760831610696E-3</v>
       </c>
       <c r="L5" s="5" t="s">
@@ -11153,7 +11163,7 @@
         <v>19318</v>
       </c>
       <c r="J6" s="38">
-        <f>I6/($C$7*1000)</f>
+        <f t="shared" si="0"/>
         <v>3.4802859044601528E-4</v>
       </c>
       <c r="L6" s="5" t="s">
@@ -11184,7 +11194,7 @@
         <v>101865</v>
       </c>
       <c r="J7" s="38">
-        <f>I7/($C$7*1000)</f>
+        <f t="shared" si="0"/>
         <v>1.8351761241217179E-3</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -11216,7 +11226,7 @@
         <v>1946</v>
       </c>
       <c r="J8" s="38">
-        <f>I8/($C$7*1000)</f>
+        <f t="shared" si="0"/>
         <v>3.5058682938603668E-5</v>
       </c>
       <c r="L8" s="5" t="s">
@@ -11248,7 +11258,7 @@
         <v>302</v>
       </c>
       <c r="J9" s="38">
-        <f>I9/($C$7*1000)</f>
+        <f t="shared" si="0"/>
         <v>5.4407616893413711E-6</v>
       </c>
       <c r="L9" s="5" t="s">
@@ -11280,7 +11290,7 @@
         <v>157</v>
       </c>
       <c r="J10" s="38">
-        <f>I10/($C$7*1000)</f>
+        <f t="shared" si="0"/>
         <v>2.828475447770183E-6</v>
       </c>
       <c r="L10" s="5" t="s">
@@ -11312,7 +11322,7 @@
         <v>23813</v>
       </c>
       <c r="J11" s="38">
-        <f>I11/($C$7*1000)</f>
+        <f t="shared" si="0"/>
         <v>4.2900946393472213E-4</v>
       </c>
       <c r="L11" s="5"/>
@@ -11396,9 +11406,9 @@
       <c r="E17" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="L17" s="60"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="62"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="73"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -11408,9 +11418,9 @@
         <f>C14/C16</f>
         <v>37.159708723262661</v>
       </c>
-      <c r="L18" s="63"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="65"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="76"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -11420,9 +11430,9 @@
         <f>C15/C17</f>
         <v>233.10657596371894</v>
       </c>
-      <c r="L19" s="63"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="65"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="76"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -11432,9 +11442,9 @@
         <f>Model!F4/Model!E3-1</f>
         <v>0.71628279812868412</v>
       </c>
-      <c r="L20" s="63"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="65"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="76"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -11444,9 +11454,9 @@
         <f>Model!G4/Model!F4-1</f>
         <v>0.27836047752300042</v>
       </c>
-      <c r="L21" s="63"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="65"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="76"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -11456,9 +11466,9 @@
         <f>Model!E12+Model!E10</f>
         <v>62056</v>
       </c>
-      <c r="L22" s="63"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="65"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="76"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -11468,9 +11478,9 @@
         <f>Model!E12</f>
         <v>64074</v>
       </c>
-      <c r="L23" s="63"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="65"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="76"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
@@ -11480,9 +11490,9 @@
         <f>Model!E18</f>
         <v>0.6744407819723448</v>
       </c>
-      <c r="L24" s="63"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="65"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="76"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -11492,9 +11502,9 @@
         <f>Model!E19</f>
         <v>0.10629806994630678</v>
       </c>
-      <c r="L25" s="63"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="65"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="76"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -11504,24 +11514,24 @@
         <f>C12/C23</f>
         <v>177.26228470830603</v>
       </c>
-      <c r="L26" s="63"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="65"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="76"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="6">
-        <f>Model!E44/Model!E49</f>
-        <v>0.1481228270363513</v>
+      <c r="C27" s="80">
+        <f>Model!P44/Model!P49</f>
+        <v>0.26765968115866523</v>
       </c>
       <c r="E27" t="s">
         <v>70</v>
       </c>
-      <c r="L27" s="63"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="65"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="76"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -11531,17 +11541,17 @@
         <f>C22/-Model!E10</f>
         <v>30.75123885034688</v>
       </c>
-      <c r="L28" s="66"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="68"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="79"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>84</v>
       </c>
       <c r="C29" s="36">
-        <f>Model!E33/Model!E43</f>
-        <v>2.8091890790546046</v>
+        <f>Model!P33/Model!P43</f>
+        <v>1.5016224388408228</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
@@ -11549,8 +11559,8 @@
         <v>85</v>
       </c>
       <c r="C30" s="36">
-        <f>(Model!E29+Model!E30)/Model!E43</f>
-        <v>1.7476661480328961</v>
+        <f>(Model!P29+Model!P30)/Model!P43</f>
+        <v>0.63962051766197159</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -11558,8 +11568,8 @@
         <v>86</v>
       </c>
       <c r="C31" s="6">
-        <f>(Model!E33-Model!E43)/Model!E39</f>
-        <v>0.32798635328013215</v>
+        <f>(Model!P33-Model!P43)/Model!P39</f>
+        <v>0.13711377228219482</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
@@ -11567,8 +11577,8 @@
         <v>87</v>
       </c>
       <c r="C32" s="36">
-        <f>(Model!E39-Model!E48)/Main!C7</f>
-        <v>7.4047865803576896</v>
+        <f>(Model!P39-Model!P48)/Main!C7</f>
+        <v>11.065716582364287</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -11576,8 +11586,8 @@
         <v>88</v>
       </c>
       <c r="C33" s="36">
-        <f>Model!E3/Model!E39</f>
-        <v>0.97186539310713049</v>
+        <f>Model!P3/Model!P39</f>
+        <v>0.24447073132879299</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -11585,8 +11595,8 @@
         <v>89</v>
       </c>
       <c r="C34" s="38">
-        <f>Model!E14/Model!E39</f>
-        <v>0.10330741553489668</v>
+        <f>Model!P14/Model!P39</f>
+        <v>2.4260929509042808E-2</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -11594,8 +11604,8 @@
         <v>90</v>
       </c>
       <c r="C35" s="38">
-        <f>Model!E14/Model!E49</f>
-        <v>0.14970183715028818</v>
+        <f>Model!P14/Model!P49</f>
+        <v>4.3775560707494332E-2</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -11652,8 +11662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
@@ -11670,13 +11680,13 @@
       <c r="A1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="70">
+      <c r="B1" s="12">
         <v>43921</v>
       </c>
-      <c r="C1" s="70">
+      <c r="C1" s="12">
         <v>44286</v>
       </c>
-      <c r="D1" s="70">
+      <c r="D1" s="12">
         <v>44651</v>
       </c>
       <c r="E1" s="20">
@@ -11799,7 +11809,7 @@
         <f>F4-P3-O3-N3</f>
         <v>290671</v>
       </c>
-      <c r="R3" s="82"/>
+      <c r="R3" s="65"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -11878,7 +11888,7 @@
         <f>F5-P5-O5-N5</f>
         <v>82208.400000000023</v>
       </c>
-      <c r="R5" s="82"/>
+      <c r="R5" s="65"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -11913,7 +11923,7 @@
       <c r="L6" s="10">
         <v>75434</v>
       </c>
-      <c r="M6" s="73">
+      <c r="M6" s="10">
         <f>E6-L6-K6-J6</f>
         <v>121081</v>
       </c>
@@ -11949,7 +11959,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="40"/>
-      <c r="G7" s="76"/>
+      <c r="G7" s="40"/>
       <c r="J7" s="10">
         <v>0</v>
       </c>
@@ -11959,7 +11969,7 @@
       <c r="L7" s="10">
         <v>0</v>
       </c>
-      <c r="M7" s="73">
+      <c r="M7" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -12002,7 +12012,7 @@
         <f>F4-F5-F6-F7</f>
         <v>205864.44999999995</v>
       </c>
-      <c r="G8" s="78">
+      <c r="G8" s="43">
         <f>G4-G5-G6-G7</f>
         <v>352258.63499999989</v>
       </c>
@@ -12027,18 +12037,18 @@
         <v>60633</v>
       </c>
       <c r="O8" s="11">
-        <f t="shared" ref="N8:O8" si="6">O3-O5-O6-O7</f>
+        <f t="shared" ref="O8" si="6">O3-O5-O6-O7</f>
         <v>40179</v>
       </c>
       <c r="P8" s="14">
         <f t="shared" ref="P8:Q8" si="7">P3-P5-P6-P7</f>
         <v>31836</v>
       </c>
-      <c r="Q8" s="78">
+      <c r="Q8" s="43">
         <f t="shared" si="7"/>
         <v>73216.449999999953</v>
       </c>
-      <c r="R8" s="84"/>
+      <c r="R8" s="65"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -12056,10 +12066,10 @@
       <c r="E9" s="15">
         <v>-1875</v>
       </c>
-      <c r="F9" s="76">
+      <c r="F9" s="40">
         <v>-1875</v>
       </c>
-      <c r="G9" s="76">
+      <c r="G9" s="40">
         <v>-1875</v>
       </c>
       <c r="J9" s="10">
@@ -12071,7 +12081,7 @@
       <c r="L9" s="10">
         <v>730</v>
       </c>
-      <c r="M9" s="73">
+      <c r="M9" s="10">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
@@ -12088,7 +12098,7 @@
         <f>F9-P9-O9-N9</f>
         <v>-3777</v>
       </c>
-      <c r="R9" s="85"/>
+      <c r="R9" s="9"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -12106,10 +12116,10 @@
       <c r="E10" s="15">
         <v>-2018</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="40">
         <v>-2018</v>
       </c>
-      <c r="G10" s="76">
+      <c r="G10" s="40">
         <v>-2018</v>
       </c>
       <c r="J10" s="10">
@@ -12121,7 +12131,7 @@
       <c r="L10" s="10">
         <v>0</v>
       </c>
-      <c r="M10" s="73">
+      <c r="M10" s="10">
         <f t="shared" si="0"/>
         <v>-2018</v>
       </c>
@@ -12138,7 +12148,7 @@
         <f>F10-P10-O10-N10</f>
         <v>-298</v>
       </c>
-      <c r="R10" s="85"/>
+      <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -12157,7 +12167,7 @@
         <v>-176</v>
       </c>
       <c r="F11" s="40"/>
-      <c r="G11" s="76"/>
+      <c r="G11" s="40"/>
       <c r="J11" s="10">
         <v>-663</v>
       </c>
@@ -12168,7 +12178,7 @@
         <f>-463-176</f>
         <v>-639</v>
       </c>
-      <c r="M11" s="73">
+      <c r="M11" s="10">
         <f t="shared" si="0"/>
         <v>1912</v>
       </c>
@@ -12185,7 +12195,7 @@
         <f>F11-P11-O11-N11</f>
         <v>3021</v>
       </c>
-      <c r="R11" s="85"/>
+      <c r="R11" s="9"/>
     </row>
     <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -12211,43 +12221,43 @@
         <f t="shared" si="8"/>
         <v>201971.44999999995</v>
       </c>
-      <c r="G12" s="78">
+      <c r="G12" s="43">
         <f>G8+G9+G10+G11</f>
         <v>348365.63499999989</v>
       </c>
       <c r="J12" s="11">
-        <f>J8+J9+J10+J11</f>
+        <f t="shared" ref="J12:Q12" si="9">J8+J9+J10+J11</f>
         <v>19104</v>
       </c>
       <c r="K12" s="11">
-        <f>K8+K9+K10+K11</f>
+        <f t="shared" si="9"/>
         <v>13329</v>
       </c>
       <c r="L12" s="11">
-        <f>L8+L9+L10+L11</f>
+        <f t="shared" si="9"/>
         <v>23382</v>
       </c>
       <c r="M12" s="11">
-        <f>M8+M9+M10+M11</f>
+        <f t="shared" si="9"/>
         <v>8259</v>
       </c>
       <c r="N12" s="11">
-        <f>N8+N9+N10+N11</f>
+        <f t="shared" si="9"/>
         <v>59653</v>
       </c>
       <c r="O12" s="11">
-        <f>O8+O9+O10+O11</f>
+        <f t="shared" si="9"/>
         <v>39740</v>
       </c>
       <c r="P12" s="14">
-        <f>P8+P9+P10+P11</f>
+        <f t="shared" si="9"/>
         <v>30416</v>
       </c>
       <c r="Q12" s="43">
-        <f>Q8+Q9+Q10+Q11</f>
+        <f t="shared" si="9"/>
         <v>72162.449999999953</v>
       </c>
-      <c r="R12" s="84"/>
+      <c r="R12" s="65"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -12269,7 +12279,7 @@
         <f>F12*-F22</f>
         <v>-26256.288499999995</v>
       </c>
-      <c r="G13" s="76">
+      <c r="G13" s="40">
         <f>G12*-G22</f>
         <v>-45287.532549999989</v>
       </c>
@@ -12282,7 +12292,7 @@
       <c r="L13" s="10">
         <v>-4277</v>
       </c>
-      <c r="M13" s="73">
+      <c r="M13" s="10">
         <f t="shared" si="0"/>
         <v>7987</v>
       </c>
@@ -12299,69 +12309,69 @@
         <f>F13-P13-O13-N13</f>
         <v>-9583.2884999999951</v>
       </c>
-      <c r="R13" s="85"/>
+      <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="69">
-        <f>B12+B13</f>
+      <c r="B14" s="11">
+        <f t="shared" ref="B14:G14" si="10">B12+B13</f>
         <v>17884</v>
       </c>
-      <c r="C14" s="69">
-        <f>C12+C13</f>
+      <c r="C14" s="11">
+        <f t="shared" si="10"/>
         <v>6232</v>
       </c>
-      <c r="D14" s="69">
-        <f>D12+D13</f>
+      <c r="D14" s="11">
+        <f t="shared" si="10"/>
         <v>21770</v>
       </c>
       <c r="E14" s="14">
-        <f>E12+E13</f>
+        <f t="shared" si="10"/>
         <v>61530</v>
       </c>
-      <c r="F14" s="77">
-        <f>F12+F13</f>
+      <c r="F14" s="63">
+        <f t="shared" si="10"/>
         <v>175715.16149999996</v>
       </c>
-      <c r="G14" s="77">
-        <f>G12+G13</f>
+      <c r="G14" s="63">
+        <f t="shared" si="10"/>
         <v>303078.10244999989</v>
       </c>
       <c r="J14" s="11">
-        <f>J12+J13</f>
+        <f t="shared" ref="J14:Q14" si="11">J12+J13</f>
         <v>14469</v>
       </c>
       <c r="K14" s="11">
-        <f>K12+K13</f>
+        <f t="shared" si="11"/>
         <v>11710</v>
       </c>
       <c r="L14" s="11">
-        <f>L12+L13</f>
+        <f t="shared" si="11"/>
         <v>19105</v>
       </c>
       <c r="M14" s="11">
-        <f>M12+M13</f>
+        <f t="shared" si="11"/>
         <v>16246</v>
       </c>
       <c r="N14" s="11">
-        <f>N12+N13</f>
+        <f t="shared" si="11"/>
         <v>52977</v>
       </c>
       <c r="O14" s="11">
-        <f>O12+O13</f>
+        <f t="shared" si="11"/>
         <v>33271</v>
       </c>
       <c r="P14" s="14">
-        <f>P12+P13</f>
+        <f t="shared" si="11"/>
         <v>26888</v>
       </c>
       <c r="Q14" s="43">
-        <f>Q12+Q13</f>
+        <f t="shared" si="11"/>
         <v>62579.161499999958</v>
       </c>
-      <c r="R14" s="78"/>
+      <c r="R14" s="43"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -12382,7 +12392,7 @@
       <c r="F15" s="40">
         <v>55140</v>
       </c>
-      <c r="G15" s="76">
+      <c r="G15" s="40">
         <v>55140</v>
       </c>
       <c r="J15" s="10">
@@ -12406,72 +12416,72 @@
       <c r="P15" s="15">
         <v>55140</v>
       </c>
-      <c r="Q15" s="76">
+      <c r="Q15" s="40">
         <v>55140</v>
       </c>
-      <c r="R15" s="76"/>
+      <c r="R15" s="40"/>
     </row>
     <row r="16" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="2">
-        <f>B14/B15</f>
+        <f t="shared" ref="B16:G16" si="12">B14/B15</f>
         <v>0.36875747453503238</v>
       </c>
       <c r="C16" s="2">
-        <f>C14/C15</f>
+        <f t="shared" si="12"/>
         <v>0.12621260910950444</v>
       </c>
       <c r="D16" s="2">
-        <f>D14/D15</f>
+        <f t="shared" si="12"/>
         <v>0.42736552807224187</v>
       </c>
       <c r="E16" s="55">
-        <f>E14/E15</f>
+        <f t="shared" si="12"/>
         <v>1.1725807066356673</v>
       </c>
-      <c r="F16" s="91">
-        <f>F14/F15</f>
+      <c r="F16" s="69">
+        <f t="shared" si="12"/>
         <v>3.1867094940152332</v>
       </c>
-      <c r="G16" s="91">
-        <f>G14/G15</f>
+      <c r="G16" s="69">
+        <f t="shared" si="12"/>
         <v>5.496519812295972</v>
       </c>
       <c r="J16" s="2">
-        <f>J14/J15</f>
+        <f t="shared" ref="J16:Q16" si="13">J14/J15</f>
         <v>0.27982671591854102</v>
       </c>
       <c r="K16" s="2">
-        <f>K14/K15</f>
+        <f t="shared" si="13"/>
         <v>0.22390913610463115</v>
       </c>
       <c r="L16" s="2">
-        <f>L14/L15</f>
+        <f t="shared" si="13"/>
         <v>0.36247557250460088</v>
       </c>
       <c r="M16" s="2">
-        <f>M14/M15</f>
+        <f t="shared" si="13"/>
         <v>0.29832712048037902</v>
       </c>
       <c r="N16" s="2">
-        <f>N14/N15</f>
+        <f t="shared" si="13"/>
         <v>0.97282259397322657</v>
       </c>
       <c r="O16" s="2">
-        <f>O14/O15</f>
+        <f t="shared" si="13"/>
         <v>0.61131832797427654</v>
       </c>
       <c r="P16" s="35">
-        <f>P14/P15</f>
+        <f t="shared" si="13"/>
         <v>0.48763148349655422</v>
       </c>
-      <c r="Q16" s="83">
-        <f>Q14/Q15</f>
+      <c r="Q16" s="66">
+        <f t="shared" si="13"/>
         <v>1.1349140642002169</v>
       </c>
-      <c r="R16" s="86"/>
+      <c r="R16" s="66"/>
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
@@ -12484,7 +12494,7 @@
       <c r="F17" s="44">
         <v>3.2</v>
       </c>
-      <c r="G17" s="92">
+      <c r="G17" s="70">
         <v>3.92</v>
       </c>
       <c r="J17" s="49"/>
@@ -12494,8 +12504,8 @@
       <c r="N17" s="49"/>
       <c r="O17" s="49"/>
       <c r="P17" s="48"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="86"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
     </row>
     <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -12523,21 +12533,21 @@
       <c r="G18" s="47">
         <v>0.71</v>
       </c>
-      <c r="H18" s="72"/>
+      <c r="H18" s="61"/>
       <c r="J18" s="3">
-        <f t="shared" ref="J18:M18" si="9">1-J5/J3</f>
+        <f t="shared" ref="J18:M18" si="14">1-J5/J3</f>
         <v>0.67687049860930992</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.65027094622759485</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.67372063028450158</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.68919762805766527</v>
       </c>
       <c r="N18" s="3">
@@ -12556,7 +12566,7 @@
         <f>1-Q5/Q3</f>
         <v>0.7171771521754835</v>
       </c>
-      <c r="R18" s="84"/>
+      <c r="R18" s="65"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -12579,21 +12589,21 @@
         <v>0.10629806994630678</v>
       </c>
       <c r="F19" s="46"/>
-      <c r="G19" s="93"/>
+      <c r="G19" s="46"/>
       <c r="J19" s="4">
-        <f t="shared" ref="J19:M19" si="10">J14/J3</f>
+        <f t="shared" ref="J19:M19" si="15">J14/J3</f>
         <v>0.11801698191695011</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9.5709813729576862E-2</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.13037662842831504</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8.6711465277518315E-2</v>
       </c>
       <c r="N19" s="4">
@@ -12608,11 +12618,11 @@
         <f>P14/P3</f>
         <v>9.9238585237485369E-2</v>
       </c>
-      <c r="Q19" s="89">
+      <c r="Q19" s="68">
         <f>Q14/Q3</f>
         <v>0.21529207076041285</v>
       </c>
-      <c r="R19" s="85"/>
+      <c r="R19" s="9"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -12671,19 +12681,19 @@
         <v>0.2354490789348096</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" ref="D21:G21" si="11">D6/C6-1</f>
+        <f t="shared" ref="D21:G21" si="16">D6/C6-1</f>
         <v>0.14295132289847912</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.45216572334979621</v>
       </c>
-      <c r="F21" s="88">
-        <f t="shared" si="11"/>
+      <c r="F21" s="67">
+        <f t="shared" si="16"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="G21" s="88">
-        <f t="shared" si="11"/>
+      <c r="G21" s="67">
+        <f t="shared" si="16"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="J21" s="4"/>
@@ -12700,49 +12710,49 @@
       <c r="A22" t="s">
         <v>147</v>
       </c>
-      <c r="B22" s="87">
+      <c r="B22" s="4">
         <f>-B13/B12</f>
         <v>0.25696954588890275</v>
       </c>
-      <c r="C22" s="87">
+      <c r="C22" s="4">
         <f>-C13/C12</f>
         <v>-0.68888888888888888</v>
       </c>
-      <c r="D22" s="87">
+      <c r="D22" s="4">
         <f>-D13/D12</f>
         <v>0.14395816129920175</v>
       </c>
-      <c r="E22" s="87">
+      <c r="E22" s="4">
         <f>-E13/E12</f>
         <v>3.9704092143459123E-2</v>
       </c>
-      <c r="F22" s="88">
+      <c r="F22" s="67">
         <v>0.13</v>
       </c>
-      <c r="G22" s="88">
+      <c r="G22" s="67">
         <v>0.13</v>
       </c>
-      <c r="J22" s="87">
+      <c r="J22" s="4">
         <f>-J13/J12</f>
         <v>0.24261934673366833</v>
       </c>
-      <c r="K22" s="87">
-        <f t="shared" ref="J22:N22" si="12">-K13/K12</f>
+      <c r="K22" s="4">
+        <f t="shared" ref="K22:N22" si="17">-K13/K12</f>
         <v>0.12146447595468528</v>
       </c>
-      <c r="L22" s="87">
-        <f t="shared" si="12"/>
+      <c r="L22" s="4">
+        <f t="shared" si="17"/>
         <v>0.1829184843041656</v>
       </c>
-      <c r="M22" s="87">
+      <c r="M22" s="4">
         <f>-M13/M12</f>
         <v>-0.96706623077854459</v>
       </c>
-      <c r="N22" s="87">
-        <f t="shared" si="12"/>
+      <c r="N22" s="4">
+        <f t="shared" si="17"/>
         <v>0.11191390206695388</v>
       </c>
-      <c r="O22" s="87">
+      <c r="O22" s="4">
         <f>-O13/O12</f>
         <v>0.16278309008555611</v>
       </c>
@@ -12785,7 +12795,7 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="90"/>
+      <c r="Q23" s="68"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -12807,8 +12817,8 @@
         <f>-E10/E3</f>
         <v>3.4862588193019192E-3</v>
       </c>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -12838,8 +12848,8 @@
         <f>-E10/E8</f>
         <v>2.961419368093568E-2</v>
       </c>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -12854,35 +12864,35 @@
         <v>36</v>
       </c>
       <c r="B28" s="11">
-        <f t="shared" ref="B28:E28" si="13">B29+B31-B40-B41-B47</f>
+        <f t="shared" ref="B28:E28" si="18">B29+B31-B40-B41-B47</f>
         <v>66827</v>
       </c>
       <c r="C28" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>82000</v>
       </c>
       <c r="D28" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>102069</v>
       </c>
       <c r="E28" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>164315</v>
       </c>
       <c r="I28" s="11">
-        <f t="shared" ref="I28:N28" si="14">I29+I30+I31-I40-I41</f>
+        <f t="shared" ref="I28:N28" si="19">I29+I30+I31-I40-I41</f>
         <v>148405</v>
       </c>
       <c r="J28" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>173052</v>
       </c>
       <c r="K28" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>195437</v>
       </c>
       <c r="L28" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>196769</v>
       </c>
       <c r="M28" s="11">
@@ -12890,7 +12900,7 @@
         <v>233027</v>
       </c>
       <c r="N28" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>272465</v>
       </c>
       <c r="O28" s="11">
@@ -12965,7 +12975,7 @@
         <v>67928</v>
       </c>
       <c r="I30" s="10">
-        <f t="shared" ref="I30:I47" si="15">D30</f>
+        <f t="shared" ref="I30:I47" si="20">D30</f>
         <v>45567</v>
       </c>
       <c r="J30" s="10">
@@ -13007,7 +13017,7 @@
         <v>81323</v>
       </c>
       <c r="I31" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>84498</v>
       </c>
       <c r="J31" s="10">
@@ -13049,7 +13059,7 @@
         <v>33296</v>
       </c>
       <c r="I32" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>19611</v>
       </c>
       <c r="J32" s="10">
@@ -13095,35 +13105,35 @@
         <v>303325</v>
       </c>
       <c r="I33" s="11">
-        <f>SUM(I29:I32)</f>
+        <f t="shared" ref="I33:P33" si="21">SUM(I29:I32)</f>
         <v>193029</v>
       </c>
       <c r="J33" s="11">
-        <f>SUM(J29:J32)</f>
+        <f t="shared" si="21"/>
         <v>216640</v>
       </c>
       <c r="K33" s="11">
-        <f>SUM(K29:K32)</f>
+        <f t="shared" si="21"/>
         <v>247398</v>
       </c>
       <c r="L33" s="11">
-        <f>SUM(L29:L32)</f>
+        <f t="shared" si="21"/>
         <v>262890</v>
       </c>
       <c r="M33" s="11">
-        <f>SUM(M29:M32)</f>
+        <f t="shared" si="21"/>
         <v>303325</v>
       </c>
       <c r="N33" s="11">
-        <f>SUM(N29:N32)</f>
+        <f t="shared" si="21"/>
         <v>370409</v>
       </c>
       <c r="O33" s="11">
-        <f>SUM(O29:O32)</f>
+        <f t="shared" si="21"/>
         <v>435446</v>
       </c>
       <c r="P33" s="14">
-        <f>SUM(P29:P32)</f>
+        <f t="shared" si="21"/>
         <v>454900</v>
       </c>
     </row>
@@ -13144,7 +13154,7 @@
         <v>7874</v>
       </c>
       <c r="I34" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>10577</v>
       </c>
       <c r="J34" s="10">
@@ -13186,7 +13196,7 @@
         <v>78041</v>
       </c>
       <c r="I35" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>86163</v>
       </c>
       <c r="J35" s="10">
@@ -13207,7 +13217,7 @@
       <c r="O35" s="10">
         <v>73986</v>
       </c>
-      <c r="P35" s="81">
+      <c r="P35" s="64">
         <v>230658</v>
       </c>
     </row>
@@ -13228,7 +13238,7 @@
         <v>171620</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>171620</v>
       </c>
       <c r="J36" s="10">
@@ -13270,7 +13280,7 @@
         <v>2875</v>
       </c>
       <c r="I37" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2875</v>
       </c>
       <c r="J37" s="10">
@@ -13295,45 +13305,45 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="80" t="s">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="73">
+      <c r="B38" s="10">
         <v>26967</v>
       </c>
-      <c r="C38" s="73">
+      <c r="C38" s="10">
         <v>34698</v>
       </c>
-      <c r="D38" s="73">
+      <c r="D38" s="10">
         <v>30368</v>
       </c>
-      <c r="E38" s="74">
+      <c r="E38" s="15">
         <v>31866</v>
       </c>
       <c r="I38" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>30368</v>
       </c>
-      <c r="J38" s="73">
+      <c r="J38" s="10">
         <v>29251</v>
       </c>
-      <c r="K38" s="73">
+      <c r="K38" s="10">
         <v>29213</v>
       </c>
-      <c r="L38" s="73">
+      <c r="L38" s="10">
         <v>29743</v>
       </c>
-      <c r="M38" s="73">
+      <c r="M38" s="10">
         <v>31866</v>
       </c>
-      <c r="N38" s="73">
+      <c r="N38" s="10">
         <v>31103</v>
       </c>
-      <c r="O38" s="73">
+      <c r="O38" s="10">
         <v>57105</v>
       </c>
-      <c r="P38" s="74">
+      <c r="P38" s="15">
         <v>68601</v>
       </c>
     </row>
@@ -13358,35 +13368,35 @@
         <v>595601</v>
       </c>
       <c r="I39" s="11">
-        <f>SUM(I33:I38)</f>
+        <f t="shared" ref="I39:P39" si="22">SUM(I33:I38)</f>
         <v>494632</v>
       </c>
       <c r="J39" s="11">
-        <f>SUM(J33:J38)</f>
+        <f t="shared" si="22"/>
         <v>513857</v>
       </c>
       <c r="K39" s="11">
-        <f>SUM(K33:K38)</f>
+        <f t="shared" si="22"/>
         <v>542141</v>
       </c>
       <c r="L39" s="11">
-        <f>SUM(L33:L38)</f>
+        <f t="shared" si="22"/>
         <v>555925</v>
       </c>
       <c r="M39" s="11">
-        <f>SUM(M33:M38)</f>
+        <f t="shared" si="22"/>
         <v>595601</v>
       </c>
       <c r="N39" s="11">
-        <f>SUM(N33:N38)</f>
+        <f t="shared" si="22"/>
         <v>657881</v>
       </c>
       <c r="O39" s="11">
-        <f>SUM(O33:O38)</f>
+        <f t="shared" si="22"/>
         <v>746936</v>
       </c>
       <c r="P39" s="14">
-        <f>SUM(P33:P38)</f>
+        <f t="shared" si="22"/>
         <v>1108284</v>
       </c>
     </row>
@@ -13407,7 +13417,7 @@
         <v>5575</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>5786</v>
       </c>
       <c r="J40" s="10">
@@ -13449,7 +13459,7 @@
         <v>31427</v>
       </c>
       <c r="I41" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>19227</v>
       </c>
       <c r="J41" s="10">
@@ -13491,7 +13501,7 @@
         <v>70974</v>
       </c>
       <c r="I42" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>40004</v>
       </c>
       <c r="J42" s="10">
@@ -13537,35 +13547,35 @@
         <v>107976</v>
       </c>
       <c r="I43" s="11">
-        <f>SUM(I40:I42)</f>
+        <f t="shared" ref="I43:P43" si="23">SUM(I40:I42)</f>
         <v>65017</v>
       </c>
       <c r="J43" s="11">
-        <f>SUM(J40:J42)</f>
+        <f t="shared" si="23"/>
         <v>61732</v>
       </c>
       <c r="K43" s="11">
-        <f>SUM(K40:K42)</f>
+        <f t="shared" si="23"/>
         <v>71948</v>
       </c>
       <c r="L43" s="11">
-        <f>SUM(L40:L42)</f>
+        <f t="shared" si="23"/>
         <v>87537</v>
       </c>
       <c r="M43" s="11">
-        <f>SUM(M40:M42)</f>
+        <f t="shared" si="23"/>
         <v>107976</v>
       </c>
       <c r="N43" s="11">
-        <f>SUM(N40:N42)</f>
+        <f t="shared" si="23"/>
         <v>109705</v>
       </c>
       <c r="O43" s="11">
-        <f>SUM(O40:O42)</f>
+        <f t="shared" si="23"/>
         <v>152371</v>
       </c>
       <c r="P43" s="14">
-        <f>SUM(P40:P42)</f>
+        <f t="shared" si="23"/>
         <v>302939</v>
       </c>
       <c r="Q43" s="11"/>
@@ -13588,7 +13598,7 @@
         <v>60881</v>
       </c>
       <c r="I44" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>91080</v>
       </c>
       <c r="J44" s="10">
@@ -13630,7 +13640,7 @@
         <v>3742</v>
       </c>
       <c r="I45" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>9593</v>
       </c>
       <c r="J45" s="10">
@@ -13672,7 +13682,7 @@
         <v>11201</v>
       </c>
       <c r="I46" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>15744</v>
       </c>
       <c r="J46" s="10">
@@ -13714,7 +13724,7 @@
         <v>784</v>
       </c>
       <c r="I47" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>769</v>
       </c>
       <c r="J47" s="10">
@@ -13760,35 +13770,35 @@
         <v>184584</v>
       </c>
       <c r="I48" s="11">
-        <f>SUM(I43:I47)</f>
+        <f t="shared" ref="I48:P48" si="24">SUM(I43:I47)</f>
         <v>182203</v>
       </c>
       <c r="J48" s="11">
-        <f>SUM(J43:J47)</f>
+        <f t="shared" si="24"/>
         <v>180408</v>
       </c>
       <c r="K48" s="11">
-        <f>SUM(K43:K47)</f>
+        <f t="shared" si="24"/>
         <v>185181</v>
       </c>
       <c r="L48" s="11">
-        <f>SUM(L43:L47)</f>
+        <f t="shared" si="24"/>
         <v>170621</v>
       </c>
       <c r="M48" s="11">
-        <f>SUM(M43:M47)</f>
+        <f t="shared" si="24"/>
         <v>184584</v>
       </c>
       <c r="N48" s="11">
-        <f>SUM(N43:N47)</f>
+        <f t="shared" si="24"/>
         <v>186179</v>
       </c>
       <c r="O48" s="11">
-        <f>SUM(O43:O47)</f>
+        <f t="shared" si="24"/>
         <v>230508</v>
       </c>
       <c r="P48" s="14">
-        <f>SUM(P43:P47)</f>
+        <f t="shared" si="24"/>
         <v>494060</v>
       </c>
     </row>
@@ -13796,15 +13806,15 @@
       <c r="A49" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="79">
+      <c r="B49" s="10">
         <f>B39-B48</f>
         <v>242171</v>
       </c>
-      <c r="C49" s="79">
+      <c r="C49" s="10">
         <f>C39-C48</f>
         <v>269646</v>
       </c>
-      <c r="D49" s="79">
+      <c r="D49" s="10">
         <f>D39-D48</f>
         <v>312429</v>
       </c>
@@ -13812,36 +13822,36 @@
         <f>E39-E48</f>
         <v>411017</v>
       </c>
-      <c r="I49" s="79">
-        <f>I39-I48</f>
+      <c r="I49" s="10">
+        <f t="shared" ref="I49:P49" si="25">I39-I48</f>
         <v>312429</v>
       </c>
-      <c r="J49" s="79">
-        <f>J39-J48</f>
+      <c r="J49" s="10">
+        <f t="shared" si="25"/>
         <v>333449</v>
       </c>
-      <c r="K49" s="79">
-        <f>K39-K48</f>
+      <c r="K49" s="10">
+        <f t="shared" si="25"/>
         <v>356960</v>
       </c>
-      <c r="L49" s="79">
-        <f>L39-L48</f>
+      <c r="L49" s="10">
+        <f t="shared" si="25"/>
         <v>385304</v>
       </c>
-      <c r="M49" s="79">
-        <f>M39-M48</f>
+      <c r="M49" s="10">
+        <f t="shared" si="25"/>
         <v>411017</v>
       </c>
-      <c r="N49" s="79">
-        <f>N39-N48</f>
+      <c r="N49" s="10">
+        <f t="shared" si="25"/>
         <v>471702</v>
       </c>
-      <c r="O49" s="79">
-        <f>O39-O48</f>
+      <c r="O49" s="10">
+        <f t="shared" si="25"/>
         <v>516428</v>
       </c>
       <c r="P49" s="15">
-        <f>P39-P48</f>
+        <f t="shared" si="25"/>
         <v>614224</v>
       </c>
     </row>
@@ -13849,15 +13859,15 @@
       <c r="A51" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="71">
+      <c r="B51" s="60">
         <f>-B9/(B44+B40)</f>
         <v>-3.072351719363028E-3</v>
       </c>
-      <c r="C51" s="71">
+      <c r="C51" s="60">
         <f>-C9/(C44+C40)</f>
         <v>1.2802680660049314E-2</v>
       </c>
-      <c r="D51" s="71">
+      <c r="D51" s="60">
         <f>-D9/(D44+D40)</f>
         <v>1.4845250139367787E-2</v>
       </c>
